--- a/src/main/java/data.xlsx
+++ b/src/main/java/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>tutorial</t>
   </si>
 </sst>
 </file>
@@ -365,14 +362,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/src/main/java/data.xlsx
+++ b/src/main/java/data.xlsx
@@ -1,29 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4A18B95C-E9A0-46C9-95DD-B520D06C2A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="6120"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="14148" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="leave" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K6"/>
+  <oleSize ref="A1:M11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>tutorial</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>FMLA US</t>
+  </si>
+  <si>
+    <t>Linda Anderson</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's Nice to test </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,6 +169,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -183,6 +221,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,24 +413,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD07E889-8D48-4D18-9BD0-223E048639CE}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/data.xlsx
+++ b/src/main/java/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4A18B95C-E9A0-46C9-95DD-B520D06C2A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B001E09-5330-43C4-A843-B6EF819B4A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="14148" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14508" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>Linda Anderson</t>
   </si>
   <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's Nice to test </t>
+    <t>It's Nice to test</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,37 +451,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1">
         <v>2020</v>
       </c>
       <c r="E1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
       <c r="H1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
     </row>

--- a/src/main/java/data.xlsx
+++ b/src/main/java/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B001E09-5330-43C4-A843-B6EF819B4A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A197B5A8-EA7F-443E-AD7F-E8DFBE64DDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14508" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="14532" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
         <v>2020</v>
       </c>
       <c r="E1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -473,7 +473,7 @@
         <v>2020</v>
       </c>
       <c r="H1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
